--- a/data/trans_dic/P5_6-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_6-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de luz natural suficiente en su vivienda</t>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>94,6%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,73; 100,0</t>
+          <t>83,85; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,4; 100,0</t>
+          <t>83,04; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,6; 100,0</t>
+          <t>85,18; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,94; 98,78</t>
+          <t>81,19; 97,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,53; 99,17</t>
+          <t>89,04; 98,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,97; 98,47</t>
+          <t>87,55; 98,63</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>94,95%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>94,72%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>97,51%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>86,69%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>93,75%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>93,29%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>95,58%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>89,24%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,89; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,87; 97,2</t>
+          <t>46,02; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,56; 97,85</t>
+          <t>86,27; 98,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,24; 97,31</t>
+          <t>85,64; 98,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,19; 97,8</t>
+          <t>93,21; 99,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,82; 95,45</t>
+          <t>66,77; 98,02</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>94,28%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,55; 98,23</t>
+          <t>85,67; 98,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,7; 99,16</t>
+          <t>85,68; 98,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,52; 96,73</t>
+          <t>87,14; 97,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,67; 97,53</t>
+          <t>88,01; 97,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,46; 96,58</t>
+          <t>89,09; 96,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,26; 97,61</t>
+          <t>89,54; 97,34</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,13; 99,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,48; 99,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,0; 97,78</t>
+          <t>88,01; 98,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,04; 97,76</t>
+          <t>87,9; 98,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,73; 98,08</t>
+          <t>94,1; 98,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,39; 98,06</t>
+          <t>94,24; 98,93</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>98,31%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,22; 96,69</t>
+          <t>90,71; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,72; 96,81</t>
+          <t>90,69; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,13; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,02; 97,43</t>
+          <t>94,88; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,13; 97,44</t>
+          <t>94,75; 100,0</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>95,69%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,35; 98,83</t>
+          <t>85,46; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,3; 98,78</t>
+          <t>85,52; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,12; 99,07</t>
+          <t>81,5; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>89,86; 99,0</t>
+          <t>81,57; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,02; 98,64</t>
+          <t>88,67; 98,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,78; 98,49</t>
+          <t>88,77; 98,76</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,83%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>93,98; 97,34</t>
+          <t>95,48; 99,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,39; 96,74</t>
+          <t>84,16; 98,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>93,75; 96,95</t>
+          <t>92,74; 97,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93,36; 96,84</t>
+          <t>92,38; 97,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,39; 96,74</t>
+          <t>94,63; 97,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,86; 96,29</t>
+          <t>89,56; 96,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83385</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103490</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>111961</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>124529</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>195346</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>228019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72203; 86113</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>88877; 107024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100143; 117565</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>108802; 130998</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>181353; 201226</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>211028; 237723</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>136829</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>141554</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>126575</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>156385</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>263403</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>297938</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>77650; 168742</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>115002; 131190</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>141391; 162518</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>251797; 269529</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>222898; 327226</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>132149</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>153248</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>201349</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>248521</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>333498</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>401769</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>119707; 137463</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>138851; 159280</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>187707; 209319</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>232408; 258455</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>316380; 344316</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>381564; 414802</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>163480</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>186693</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>181736</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>207304</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>345216</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>393996</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>168351; 187546</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>191940; 214052</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>333813; 351065</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>381732; 400745</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>134790</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>152796</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>103481</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>116201</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>238271</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>268997</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>125983; 138892</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>142769; 157422</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>229955; 242373</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>259257; 273623</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>87680</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>106267</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>101112</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>130005</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>188792</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>236271</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>77120; 90237</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>93491; 109317</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>87222; 107022</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>112246; 137602</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>174901; 194700</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>219180; 243850</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>684.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>738312</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>844047</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>826214</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>982943</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1564525</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1826991</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>721126; 748042</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>750104; 876225</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>805009; 844643</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>956426; 1004526</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1536131; 1583372</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1725489; 1862114</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>